--- a/Layer Map.xlsx
+++ b/Layer Map.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deVries\Desktop\MatlabGDSPhotonicsToolbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\1 - Graduate Studies\MatlabGDSPhotonicsToolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Layer Map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="168">
   <si>
     <t>Name</t>
   </si>
@@ -308,9 +308,6 @@
     <t>&lt;/layer-properties&gt;</t>
   </si>
   <si>
-    <t>I0</t>
-  </si>
-  <si>
     <t>KLayout Layer Properties Definition</t>
   </si>
   <si>
@@ -505,6 +502,30 @@
   <si>
     <t>FullTrench2nm has a resolution of 2 nm, it is substracted for FullCore2nm</t>
   </si>
+  <si>
+    <t>I19</t>
+  </si>
+  <si>
+    <t>I25</t>
+  </si>
+  <si>
+    <t>I28</t>
+  </si>
+  <si>
+    <t>I31</t>
+  </si>
+  <si>
+    <t>I34</t>
+  </si>
+  <si>
+    <t>I37</t>
+  </si>
+  <si>
+    <t>I40</t>
+  </si>
+  <si>
+    <t>I43</t>
+  </si>
 </sst>
 </file>
 
@@ -680,7 +701,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -726,9 +747,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyFill="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -1233,8 +1251,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="B5:O60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,13 +1287,13 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C5" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="C5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -1291,15 +1309,15 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1316,9 +1334,9 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1335,9 +1353,9 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
+      <c r="B9" s="20"/>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1354,9 +1372,9 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
+      <c r="B10" s="20"/>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1373,9 +1391,9 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
+      <c r="B11" s="20"/>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1384,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -1392,9 +1410,9 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
+      <c r="B12" s="20"/>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1403,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -1411,9 +1429,9 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
+      <c r="B13" s="20"/>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1422,7 +1440,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -1430,9 +1448,9 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
+      <c r="B14" s="20"/>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1441,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1449,9 +1467,9 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
+      <c r="B15" s="20"/>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1468,9 +1486,9 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
+      <c r="B16" s="20"/>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1487,9 +1505,9 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
+      <c r="B17" s="20"/>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1506,9 +1524,9 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
+      <c r="B18" s="20"/>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1525,7 +1543,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
+      <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -1544,7 +1562,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
+      <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>55</v>
       </c>
@@ -1563,7 +1581,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
+      <c r="B21" s="19"/>
       <c r="C21" t="s">
         <v>56</v>
       </c>
@@ -1582,7 +1600,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C22" t="s">
@@ -1603,7 +1621,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
+      <c r="B23" s="23"/>
       <c r="C23" t="s">
         <v>13</v>
       </c>
@@ -1622,7 +1640,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -1641,7 +1659,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
+      <c r="B25" s="23"/>
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -1660,7 +1678,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
+      <c r="B26" s="23"/>
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -1679,7 +1697,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
+      <c r="B27" s="23"/>
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -1698,7 +1716,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
+      <c r="B28" s="23"/>
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -1717,7 +1735,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
+      <c r="B29" s="23"/>
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -1736,11 +1754,11 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30">
         <v>21</v>
@@ -1757,9 +1775,9 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="20"/>
+      <c r="B31" s="19"/>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31">
         <v>21</v>
@@ -1777,9 +1795,9 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="20"/>
+      <c r="B32" s="19"/>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32">
         <v>21</v>
@@ -1797,9 +1815,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
+      <c r="B33" s="19"/>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33">
         <v>21</v>
@@ -1817,9 +1835,9 @@
       </c>
     </row>
     <row r="34" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="20"/>
+      <c r="B34" s="19"/>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D34">
         <v>21</v>
@@ -1837,9 +1855,9 @@
       </c>
     </row>
     <row r="35" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
+      <c r="B35" s="19"/>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D35">
         <v>22</v>
@@ -1857,9 +1875,9 @@
       </c>
     </row>
     <row r="36" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="20"/>
+      <c r="B36" s="19"/>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D36">
         <v>22</v>
@@ -1877,9 +1895,9 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
+      <c r="B37" s="19"/>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D37">
         <v>22</v>
@@ -1897,9 +1915,9 @@
       </c>
     </row>
     <row r="38" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="20"/>
+      <c r="B38" s="19"/>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38">
         <v>22</v>
@@ -1917,9 +1935,9 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="20"/>
+      <c r="B39" s="19"/>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D39">
         <v>22</v>
@@ -1937,7 +1955,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="20"/>
+      <c r="B40" s="19"/>
       <c r="C40" t="s">
         <v>29</v>
       </c>
@@ -1956,7 +1974,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="20"/>
+      <c r="B41" s="19"/>
       <c r="C41" t="s">
         <v>60</v>
       </c>
@@ -1975,7 +1993,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="20"/>
+      <c r="B42" s="19"/>
       <c r="C42" t="s">
         <v>61</v>
       </c>
@@ -1994,7 +2012,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C43" t="s">
@@ -2015,7 +2033,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
+      <c r="B44" s="23"/>
       <c r="C44" t="s">
         <v>58</v>
       </c>
@@ -2034,7 +2052,7 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="24"/>
+      <c r="B45" s="23"/>
       <c r="C45" t="s">
         <v>59</v>
       </c>
@@ -2053,7 +2071,7 @@
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="24"/>
+      <c r="B46" s="23"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -2072,9 +2090,9 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="24"/>
+      <c r="B47" s="23"/>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47">
         <v>33</v>
@@ -2083,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="3"/>
@@ -2091,9 +2109,9 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="24"/>
+      <c r="B48" s="23"/>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48">
         <v>33</v>
@@ -2102,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="3"/>
@@ -2110,9 +2128,9 @@
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="24"/>
+      <c r="B49" s="23"/>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49">
         <v>33</v>
@@ -2121,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="3"/>
@@ -2129,9 +2147,9 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="24"/>
+      <c r="B50" s="23"/>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50">
         <v>33</v>
@@ -2140,7 +2158,7 @@
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="3"/>
@@ -2148,7 +2166,7 @@
       </c>
     </row>
     <row r="51" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C51" t="s">
@@ -2169,7 +2187,7 @@
       </c>
     </row>
     <row r="52" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="21"/>
+      <c r="B52" s="20"/>
       <c r="C52" t="s">
         <v>35</v>
       </c>
@@ -2188,7 +2206,7 @@
       </c>
     </row>
     <row r="53" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="21"/>
+      <c r="B53" s="20"/>
       <c r="C53" t="s">
         <v>37</v>
       </c>
@@ -2207,9 +2225,9 @@
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="21"/>
+      <c r="B54" s="20"/>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54">
         <v>94</v>
@@ -2218,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G54" t="str">
         <f xml:space="preserve"> IF(NOT(ISBLANK(D54)),"'"&amp;C54&amp;"', [" &amp; D54 &amp; "; " &amp; E54 &amp; "],...", "...")</f>
@@ -2247,11 +2265,11 @@
       </c>
     </row>
     <row r="56" spans="2:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="20" t="s">
-        <v>149</v>
+      <c r="B56" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D56">
         <v>103</v>
@@ -2260,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" ref="G56:G58" si="4" xml:space="preserve"> IF(NOT(ISBLANK(D56)),"'"&amp;C56&amp;"', [" &amp; D56 &amp; "; " &amp; E56 &amp; "],...", "...")</f>
@@ -2268,9 +2286,9 @@
       </c>
     </row>
     <row r="57" spans="2:15" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="20"/>
+      <c r="B57" s="19"/>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D57">
         <v>103</v>
@@ -2279,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="4"/>
@@ -2287,9 +2305,9 @@
       </c>
     </row>
     <row r="58" spans="2:15" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="20"/>
+      <c r="B58" s="19"/>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D58">
         <v>103</v>
@@ -2298,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="4"/>
@@ -2313,9 +2331,9 @@
       <c r="O58" s="7"/>
     </row>
     <row r="59" spans="2:15" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="20"/>
+      <c r="B59" s="19"/>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D59">
         <v>103</v>
@@ -2324,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" ref="G59" si="5" xml:space="preserve"> IF(NOT(ISBLANK(D59)),"'"&amp;C59&amp;"', [" &amp; D59 &amp; "; " &amp; E59 &amp; "],...", "...")</f>
@@ -2354,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AH60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,31 +2409,31 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:34" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
       <c r="T4" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>75</v>
@@ -2463,7 +2481,7 @@
         <v>74</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:34" ht="30" x14ac:dyDescent="0.25">
@@ -2522,7 +2540,7 @@
         <v>1/0@1</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" ref="V6:V37" si="0">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; F$5 &amp; "&gt;" &amp; F6 &amp; "&lt;/" &amp; F$5 &amp; "&gt;" &amp; $T$16</f>
@@ -2658,9 +2676,754 @@
         <f>TEXT('Layer Map'!D8, 0) &amp; "/" &amp; TEXT('Layer Map'!E8, 0) &amp; "@1"</f>
         <v>1/1@1</v>
       </c>
-      <c r="T7" s="16" t="e">
-        <f>T10&amp;T11&amp;AH60&amp;T12&amp;T13</f>
-        <v>#REF!</v>
+      <c r="T7" s="16" t="str">
+        <f>T10&amp;T11&amp;AH58&amp;T12&amp;T13</f>
+        <v>&lt;?xml version='1.0' encoding='utf-8'?&gt;_x000D_
+&lt;layer-properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/0 FullCore&lt;/name&gt;_x000D_
+		&lt;source&gt;1/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999999&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999999&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/1 FullClad&lt;/name&gt;_x000D_
+		&lt;source&gt;1/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/2 FullHole&lt;/name&gt;_x000D_
+		&lt;source&gt;1/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/3 FullTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;1/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/0 MidCore&lt;/name&gt;_x000D_
+		&lt;source&gt;2/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999999&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999999&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/1 MidClad&lt;/name&gt;_x000D_
+		&lt;source&gt;2/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FF9900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FF9900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/2 MidHole&lt;/name&gt;_x000D_
+		&lt;source&gt;2/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FF9900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FF9900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/3 MidTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;2/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/0 ShallowCore&lt;/name&gt;_x000D_
+		&lt;source&gt;3/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/1 ShallowClad&lt;/name&gt;_x000D_
+		&lt;source&gt;3/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/2 ShallowHole&lt;/name&gt;_x000D_
+		&lt;source&gt;3/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/3 ShallowTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;3/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#9999CC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#9999CC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I9&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;7/0 OxEtch&lt;/name&gt;_x000D_
+		&lt;source&gt;7/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;8/0 DeepEtch&lt;/name&gt;_x000D_
+		&lt;source&gt;8/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CCB27F&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CCB27F&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;9/0 NOTileSi&lt;/name&gt;_x000D_
+		&lt;source&gt;9/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/1 N&lt;/name&gt;_x000D_
+		&lt;source&gt;11/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/2 Np&lt;/name&gt;_x000D_
+		&lt;source&gt;11/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/3 Npp&lt;/name&gt;_x000D_
+		&lt;source&gt;11/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/1 P&lt;/name&gt;_x000D_
+		&lt;source&gt;12/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/2 Pp&lt;/name&gt;_x000D_
+		&lt;source&gt;12/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/3 Ppp&lt;/name&gt;_x000D_
+		&lt;source&gt;12/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00CCCC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00CCCC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;13/1 GeN&lt;/name&gt;_x000D_
+		&lt;source&gt;13/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC00CC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC00CC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I21&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;14/1 GeP&lt;/name&gt;_x000D_
+		&lt;source&gt;14/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/1 M1&lt;/name&gt;_x000D_
+		&lt;source&gt;21/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FFB200&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FFB200&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/2 M2&lt;/name&gt;_x000D_
+		&lt;source&gt;21/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/3 M3&lt;/name&gt;_x000D_
+		&lt;source&gt;21/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#191919&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#191919&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/4 M4&lt;/name&gt;_x000D_
+		&lt;source&gt;21/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/5 M5&lt;/name&gt;_x000D_
+		&lt;source&gt;21/5@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/1 V1&lt;/name&gt;_x000D_
+		&lt;source&gt;22/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FFB200&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FFB200&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/2 V2&lt;/name&gt;_x000D_
+		&lt;source&gt;22/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/3 V3&lt;/name&gt;_x000D_
+		&lt;source&gt;22/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#191919&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#191919&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/4 V4&lt;/name&gt;_x000D_
+		&lt;source&gt;22/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/5 V5&lt;/name&gt;_x000D_
+		&lt;source&gt;22/5@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#4C4C99&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#4C4C99&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I9&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;23/1 MOpen&lt;/name&gt;_x000D_
+		&lt;source&gt;23/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#4C994C&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#4C994C&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;29/1 NOTileM1&lt;/name&gt;_x000D_
+		&lt;source&gt;29/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#339933&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#339933&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;29/2 NOTileM2&lt;/name&gt;_x000D_
+		&lt;source&gt;29/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#0000FF&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#0000FF&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;31/0 Ge&lt;/name&gt;_x000D_
+		&lt;source&gt;31/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/3 PolyTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;32/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I12&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/4 PolyInv&lt;/name&gt;_x000D_
+		&lt;source&gt;32/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I15&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/0 PolyFull&lt;/name&gt;_x000D_
+		&lt;source&gt;32/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I4&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/0 PolyMidCore&lt;/name&gt;_x000D_
+		&lt;source&gt;33/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/1 PolyMidClad&lt;/name&gt;_x000D_
+		&lt;source&gt;33/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/2 PolyMidHole&lt;/name&gt;_x000D_
+		&lt;source&gt;33/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/3 PolyMidTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;33/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I19&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;91/0 FP&lt;/name&gt;_x000D_
+		&lt;source&gt;91/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;92/0 TXT&lt;/name&gt;_x000D_
+		&lt;source&gt;92/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I25&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;93/0 DRCexcl&lt;/name&gt;_x000D_
+		&lt;source&gt;93/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I28&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;94/0 SEM&lt;/name&gt;_x000D_
+		&lt;source&gt;94/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I31&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;101/0 CMCdicing&lt;/name&gt;_x000D_
+		&lt;source&gt;101/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I34&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;103/0 FullCore6nmSPF&lt;/name&gt;_x000D_
+		&lt;source&gt;103/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I37&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;103/1 FullCore4nm&lt;/name&gt;_x000D_
+		&lt;source&gt;103/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I40&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;103/2 FullCore2nm&lt;/name&gt;_x000D_
+		&lt;source&gt;103/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I43&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;103/3 FullTrench2nm&lt;/name&gt;_x000D_
+		&lt;source&gt;103/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	 &lt;name/&gt;_x000D_
+&lt;/layer-properties&gt;</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="0"/>
@@ -2973,7 +3736,7 @@
         <v>1/3@1</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="0"/>
@@ -3151,8 +3914,8 @@
         <f>TEXT('Layer Map'!D11, 0) &amp; "/" &amp; TEXT('Layer Map'!E11, 0) &amp; "@1"</f>
         <v>2/0@1</v>
       </c>
-      <c r="T10" s="19" t="s">
-        <v>104</v>
+      <c r="T10" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="0"/>
@@ -3779,7 +4542,7 @@
         <f>TEXT('Layer Map'!D14, 0) &amp; "/" &amp; TEXT('Layer Map'!E14, 0) &amp; "@1"</f>
         <v>2/3@1</v>
       </c>
-      <c r="T13" s="19" t="s">
+      <c r="T13" s="18" t="s">
         <v>94</v>
       </c>
       <c r="V13" t="str">
@@ -4263,7 +5026,7 @@
         <v>3/1@1</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="0"/>
@@ -19602,7 +20365,7 @@
 </v>
       </c>
       <c r="AF47" t="str">
-        <f t="shared" ref="AF47:AF59" si="46">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; P$5 &amp; "&gt;" &amp; P47 &amp; "&lt;/" &amp; P$5 &amp; "&gt;" &amp; $T$16</f>
+        <f t="shared" ref="AF47:AF60" si="46">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; P$5 &amp; "&gt;" &amp; P47 &amp; "&lt;/" &amp; P$5 &amp; "&gt;" &amp; $T$16</f>
         <v xml:space="preserve">		&lt;name&gt;33/1 PolyMidClad&lt;/name&gt;_x000D_
 </v>
       </c>
@@ -21668,21 +22431,21 @@
         <v>FP</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
       </c>
       <c r="F50" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#000000</v>
+        <v>#7FFF00</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#000000</v>
+        <v>#7FFF00</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
@@ -21691,7 +22454,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>79</v>
@@ -21701,7 +22464,7 @@
         <v>false</v>
       </c>
       <c r="M50" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>80</v>
@@ -21719,12 +22482,12 @@
       </c>
       <c r="V50" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
 </v>
       </c>
       <c r="W50" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
 </v>
       </c>
       <c r="X50" t="str">
@@ -21739,7 +22502,7 @@
       </c>
       <c r="Z50" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
+        <v xml:space="preserve">		&lt;dither-pattern&gt;I19&lt;/dither-pattern&gt;_x000D_
 </v>
       </c>
       <c r="AA50" t="str">
@@ -21754,7 +22517,7 @@
       </c>
       <c r="AC50" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">		&lt;width&gt;3&lt;/width&gt;_x000D_
+        <v xml:space="preserve">		&lt;width&gt;1&lt;/width&gt;_x000D_
 </v>
       </c>
       <c r="AD50" t="str">
@@ -22396,14 +23159,14 @@
 		&lt;source&gt;33/3@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
-		&lt;visible&gt;true&lt;/visible&gt;_x000D_
-		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
-		&lt;width&gt;3&lt;/width&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I19&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
 		&lt;marked&gt;false&lt;/marked&gt;_x000D_
 		&lt;animation&gt;0&lt;/animation&gt;_x000D_
 		&lt;name&gt;91/0 FP&lt;/name&gt;_x000D_
@@ -22418,21 +23181,21 @@
         <v>TXT</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#000000</v>
+        <v>#7FFF00</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#000000</v>
+        <v>#7FFF00</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -22441,7 +23204,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>79</v>
@@ -22469,12 +23232,12 @@
       </c>
       <c r="V51" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
 </v>
       </c>
       <c r="W51" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
 </v>
       </c>
       <c r="X51" t="str">
@@ -22489,7 +23252,7 @@
       </c>
       <c r="Z51" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">		&lt;dither-pattern&gt;I0&lt;/dither-pattern&gt;_x000D_
+        <v xml:space="preserve">		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
 </v>
       </c>
       <c r="AA51" t="str">
@@ -23146,25 +23909,25 @@
 		&lt;source&gt;33/3@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
-		&lt;visible&gt;true&lt;/visible&gt;_x000D_
-		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
-		&lt;width&gt;3&lt;/width&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I19&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
 		&lt;marked&gt;false&lt;/marked&gt;_x000D_
 		&lt;animation&gt;0&lt;/animation&gt;_x000D_
 		&lt;name&gt;91/0 FP&lt;/name&gt;_x000D_
 		&lt;source&gt;91/0@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I0&lt;/dither-pattern&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
 		&lt;visible&gt;true&lt;/visible&gt;_x000D_
 		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
 		&lt;width&gt;1&lt;/width&gt;_x000D_
@@ -23182,21 +23945,21 @@
         <v>DRCexcl</v>
       </c>
       <c r="C52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
         <v>0</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
       </c>
       <c r="F52" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#0000FF</v>
+        <v>#7FFF00</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#0000FF</v>
+        <v>#7FFF00</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
@@ -23205,7 +23968,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>79</v>
@@ -23215,7 +23978,7 @@
         <v>false</v>
       </c>
       <c r="M52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>80</v>
@@ -23233,12 +23996,12 @@
       </c>
       <c r="V52" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">		&lt;frame-color&gt;#0000FF&lt;/frame-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
 </v>
       </c>
       <c r="W52" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">		&lt;fill-color&gt;#0000FF&lt;/fill-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
 </v>
       </c>
       <c r="X52" t="str">
@@ -23253,7 +24016,7 @@
       </c>
       <c r="Z52" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+        <v xml:space="preserve">		&lt;dither-pattern&gt;I25&lt;/dither-pattern&gt;_x000D_
 </v>
       </c>
       <c r="AA52" t="str">
@@ -23268,7 +24031,7 @@
       </c>
       <c r="AC52" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">		&lt;width&gt;2&lt;/width&gt;_x000D_
+        <v xml:space="preserve">		&lt;width&gt;1&lt;/width&gt;_x000D_
 </v>
       </c>
       <c r="AD52" t="str">
@@ -23910,25 +24673,25 @@
 		&lt;source&gt;33/3@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
-		&lt;visible&gt;true&lt;/visible&gt;_x000D_
-		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
-		&lt;width&gt;3&lt;/width&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I19&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
 		&lt;marked&gt;false&lt;/marked&gt;_x000D_
 		&lt;animation&gt;0&lt;/animation&gt;_x000D_
 		&lt;name&gt;91/0 FP&lt;/name&gt;_x000D_
 		&lt;source&gt;91/0@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I0&lt;/dither-pattern&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
 		&lt;visible&gt;true&lt;/visible&gt;_x000D_
 		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
 		&lt;width&gt;1&lt;/width&gt;_x000D_
@@ -23938,14 +24701,14 @@
 		&lt;source&gt;92/0@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#0000FF&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#0000FF&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
-		&lt;visible&gt;true&lt;/visible&gt;_x000D_
-		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
-		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I25&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
 		&lt;marked&gt;false&lt;/marked&gt;_x000D_
 		&lt;animation&gt;0&lt;/animation&gt;_x000D_
 		&lt;name&gt;93/0 DRCexcl&lt;/name&gt;_x000D_
@@ -23960,21 +24723,21 @@
         <v>SEM</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#00FFFF</v>
+        <v>#7FFF00</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#00FFFF</v>
+        <v>#7FFF00</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -23983,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>79</v>
@@ -23993,7 +24756,7 @@
         <v>false</v>
       </c>
       <c r="M53" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>80</v>
@@ -24011,12 +24774,12 @@
       </c>
       <c r="V53" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">		&lt;frame-color&gt;#00FFFF&lt;/frame-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
 </v>
       </c>
       <c r="W53" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">		&lt;fill-color&gt;#00FFFF&lt;/fill-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
 </v>
       </c>
       <c r="X53" t="str">
@@ -24031,7 +24794,7 @@
       </c>
       <c r="Z53" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+        <v xml:space="preserve">		&lt;dither-pattern&gt;I28&lt;/dither-pattern&gt;_x000D_
 </v>
       </c>
       <c r="AA53" t="str">
@@ -24046,7 +24809,7 @@
       </c>
       <c r="AC53" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve">		&lt;width&gt;3&lt;/width&gt;_x000D_
+        <v xml:space="preserve">		&lt;width&gt;1&lt;/width&gt;_x000D_
 </v>
       </c>
       <c r="AD53" t="str">
@@ -24688,25 +25451,25 @@
 		&lt;source&gt;33/3@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
-		&lt;visible&gt;true&lt;/visible&gt;_x000D_
-		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
-		&lt;width&gt;3&lt;/width&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I19&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
 		&lt;marked&gt;false&lt;/marked&gt;_x000D_
 		&lt;animation&gt;0&lt;/animation&gt;_x000D_
 		&lt;name&gt;91/0 FP&lt;/name&gt;_x000D_
 		&lt;source&gt;91/0@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I0&lt;/dither-pattern&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
 		&lt;visible&gt;true&lt;/visible&gt;_x000D_
 		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
 		&lt;width&gt;1&lt;/width&gt;_x000D_
@@ -24716,28 +25479,28 @@
 		&lt;source&gt;92/0@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#0000FF&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#0000FF&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
-		&lt;visible&gt;true&lt;/visible&gt;_x000D_
-		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
-		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I25&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
 		&lt;marked&gt;false&lt;/marked&gt;_x000D_
 		&lt;animation&gt;0&lt;/animation&gt;_x000D_
 		&lt;name&gt;93/0 DRCexcl&lt;/name&gt;_x000D_
 		&lt;source&gt;93/0@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#00FFFF&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#00FFFF&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
-		&lt;visible&gt;true&lt;/visible&gt;_x000D_
-		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
-		&lt;width&gt;3&lt;/width&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I28&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
 		&lt;marked&gt;false&lt;/marked&gt;_x000D_
 		&lt;animation&gt;0&lt;/animation&gt;_x000D_
 		&lt;name&gt;94/0 SEM&lt;/name&gt;_x000D_
@@ -24751,46 +25514,46 @@
         <f>'Layer Map'!C55</f>
         <v>CMCdicing</v>
       </c>
-      <c r="C54" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="D54" s="14">
-        <v>0</v>
-      </c>
-      <c r="E54" s="14">
+      <c r="C54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
         <v>0</v>
       </c>
       <c r="F54" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#CC0000</v>
+        <v>#7FFF00</v>
       </c>
       <c r="G54" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#CC0000</v>
-      </c>
-      <c r="H54" s="14">
+        <v>#7FFF00</v>
+      </c>
+      <c r="H54" s="1">
         <v>0</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="1">
         <v>0</v>
       </c>
-      <c r="J54" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K54" s="14" t="s">
+      <c r="J54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>79</v>
       </c>
       <c r="L54" s="1" t="str">
         <f t="shared" si="15"/>
         <v>false</v>
       </c>
-      <c r="M54" s="14">
+      <c r="M54" s="1">
         <v>1</v>
       </c>
-      <c r="N54" s="14" t="s">
+      <c r="N54" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O54" s="14">
+      <c r="O54" s="1">
         <v>0</v>
       </c>
       <c r="P54" s="4" t="str">
@@ -24803,12 +25566,12 @@
       </c>
       <c r="V54" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
 </v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
 </v>
       </c>
       <c r="X54" t="str">
@@ -24823,7 +25586,7 @@
       </c>
       <c r="Z54" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+        <v xml:space="preserve">		&lt;dither-pattern&gt;I31&lt;/dither-pattern&gt;_x000D_
 </v>
       </c>
       <c r="AA54" t="str">
@@ -25480,25 +26243,25 @@
 		&lt;source&gt;33/3@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
-		&lt;visible&gt;true&lt;/visible&gt;_x000D_
-		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
-		&lt;width&gt;3&lt;/width&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I19&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
 		&lt;marked&gt;false&lt;/marked&gt;_x000D_
 		&lt;animation&gt;0&lt;/animation&gt;_x000D_
 		&lt;name&gt;91/0 FP&lt;/name&gt;_x000D_
 		&lt;source&gt;91/0@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I0&lt;/dither-pattern&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
 		&lt;visible&gt;true&lt;/visible&gt;_x000D_
 		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
 		&lt;width&gt;1&lt;/width&gt;_x000D_
@@ -25508,39 +26271,39 @@
 		&lt;source&gt;92/0@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#0000FF&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#0000FF&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
-		&lt;visible&gt;true&lt;/visible&gt;_x000D_
-		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
-		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I25&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
 		&lt;marked&gt;false&lt;/marked&gt;_x000D_
 		&lt;animation&gt;0&lt;/animation&gt;_x000D_
 		&lt;name&gt;93/0 DRCexcl&lt;/name&gt;_x000D_
 		&lt;source&gt;93/0@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#00FFFF&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#00FFFF&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
-		&lt;visible&gt;true&lt;/visible&gt;_x000D_
-		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
-		&lt;width&gt;3&lt;/width&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I28&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
 		&lt;marked&gt;false&lt;/marked&gt;_x000D_
 		&lt;animation&gt;0&lt;/animation&gt;_x000D_
 		&lt;name&gt;94/0 SEM&lt;/name&gt;_x000D_
 		&lt;source&gt;94/0@1&lt;/source&gt;_x000D_
 	&lt;/properties&gt;_x000D_
 	&lt;properties&gt;_x000D_
-		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
-		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
-		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I31&lt;/dither-pattern&gt;_x000D_
 		&lt;visible&gt;true&lt;/visible&gt;_x000D_
 		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
 		&lt;width&gt;1&lt;/width&gt;_x000D_
@@ -25553,68 +26316,68 @@
       </c>
     </row>
     <row r="55" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="e">
-        <f>'Layer Map'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C55" s="14">
-        <v>0</v>
-      </c>
-      <c r="D55" s="14">
-        <v>0</v>
-      </c>
-      <c r="E55" s="14">
+      <c r="B55" s="15" t="str">
+        <f>'Layer Map'!C56</f>
+        <v>FullCore6nmSPF</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
         <v>0</v>
       </c>
       <c r="F55" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#000000</v>
+        <v>#7FFF00</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#000000</v>
-      </c>
-      <c r="H55" s="14">
+        <v>#7FFF00</v>
+      </c>
+      <c r="H55" s="1">
         <v>0</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="1">
         <v>0</v>
       </c>
-      <c r="J55" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55" s="14" t="s">
+      <c r="J55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>79</v>
       </c>
       <c r="L55" s="1" t="str">
         <f t="shared" si="15"/>
         <v>false</v>
       </c>
-      <c r="M55" s="14">
+      <c r="M55" s="1">
         <v>1</v>
       </c>
-      <c r="N55" s="14" t="s">
+      <c r="N55" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O55" s="14">
+      <c r="O55" s="1">
         <v>0</v>
       </c>
-      <c r="P55" s="4" t="e">
-        <f>TEXT('Layer Map'!#REF!, 0) &amp; "/" &amp; TEXT('Layer Map'!#REF!, 0) &amp; " " &amp; Tableau3[[#This Row],[id]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q55" s="1" t="e">
-        <f>TEXT('Layer Map'!#REF!, 0) &amp; "/" &amp; TEXT('Layer Map'!#REF!, 0) &amp; "@1"</f>
-        <v>#REF!</v>
+      <c r="P55" s="4" t="str">
+        <f>TEXT('Layer Map'!D56, 0) &amp; "/" &amp; TEXT('Layer Map'!E56, 0) &amp; " " &amp; Tableau3[[#This Row],[id]]</f>
+        <v>103/0 FullCore6nmSPF</v>
+      </c>
+      <c r="Q55" s="1" t="str">
+        <f>TEXT('Layer Map'!D56, 0) &amp; "/" &amp; TEXT('Layer Map'!E56, 0) &amp; "@1"</f>
+        <v>103/0@1</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
 </v>
       </c>
       <c r="W55" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
 </v>
       </c>
       <c r="X55" t="str">
@@ -25629,7 +26392,7 @@
       </c>
       <c r="Z55" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+        <v xml:space="preserve">		&lt;dither-pattern&gt;I34&lt;/dither-pattern&gt;_x000D_
 </v>
       </c>
       <c r="AA55" t="str">
@@ -25657,40 +26420,742 @@
         <v xml:space="preserve">		&lt;animation&gt;0&lt;/animation&gt;_x000D_
 </v>
       </c>
-      <c r="AF55" t="e">
+      <c r="AF55" t="str">
         <f t="shared" si="46"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG55" t="e">
+        <v xml:space="preserve">		&lt;name&gt;103/0 FullCore6nmSPF&lt;/name&gt;_x000D_
+</v>
+      </c>
+      <c r="AG55" t="str">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH55" s="6" t="e">
+        <v xml:space="preserve">		&lt;source&gt;103/0@1&lt;/source&gt;_x000D_
+</v>
+      </c>
+      <c r="AH55" s="6" t="str">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/0 FullCore&lt;/name&gt;_x000D_
+		&lt;source&gt;1/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999999&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999999&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/1 FullClad&lt;/name&gt;_x000D_
+		&lt;source&gt;1/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/2 FullHole&lt;/name&gt;_x000D_
+		&lt;source&gt;1/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/3 FullTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;1/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/0 MidCore&lt;/name&gt;_x000D_
+		&lt;source&gt;2/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999999&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999999&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/1 MidClad&lt;/name&gt;_x000D_
+		&lt;source&gt;2/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FF9900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FF9900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/2 MidHole&lt;/name&gt;_x000D_
+		&lt;source&gt;2/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FF9900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FF9900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/3 MidTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;2/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/0 ShallowCore&lt;/name&gt;_x000D_
+		&lt;source&gt;3/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/1 ShallowClad&lt;/name&gt;_x000D_
+		&lt;source&gt;3/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/2 ShallowHole&lt;/name&gt;_x000D_
+		&lt;source&gt;3/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/3 ShallowTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;3/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#9999CC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#9999CC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I9&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;7/0 OxEtch&lt;/name&gt;_x000D_
+		&lt;source&gt;7/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;8/0 DeepEtch&lt;/name&gt;_x000D_
+		&lt;source&gt;8/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CCB27F&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CCB27F&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;9/0 NOTileSi&lt;/name&gt;_x000D_
+		&lt;source&gt;9/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/1 N&lt;/name&gt;_x000D_
+		&lt;source&gt;11/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/2 Np&lt;/name&gt;_x000D_
+		&lt;source&gt;11/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/3 Npp&lt;/name&gt;_x000D_
+		&lt;source&gt;11/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/1 P&lt;/name&gt;_x000D_
+		&lt;source&gt;12/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/2 Pp&lt;/name&gt;_x000D_
+		&lt;source&gt;12/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/3 Ppp&lt;/name&gt;_x000D_
+		&lt;source&gt;12/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00CCCC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00CCCC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;13/1 GeN&lt;/name&gt;_x000D_
+		&lt;source&gt;13/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC00CC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC00CC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I21&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;14/1 GeP&lt;/name&gt;_x000D_
+		&lt;source&gt;14/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/1 M1&lt;/name&gt;_x000D_
+		&lt;source&gt;21/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FFB200&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FFB200&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/2 M2&lt;/name&gt;_x000D_
+		&lt;source&gt;21/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/3 M3&lt;/name&gt;_x000D_
+		&lt;source&gt;21/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#191919&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#191919&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/4 M4&lt;/name&gt;_x000D_
+		&lt;source&gt;21/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/5 M5&lt;/name&gt;_x000D_
+		&lt;source&gt;21/5@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/1 V1&lt;/name&gt;_x000D_
+		&lt;source&gt;22/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FFB200&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FFB200&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/2 V2&lt;/name&gt;_x000D_
+		&lt;source&gt;22/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/3 V3&lt;/name&gt;_x000D_
+		&lt;source&gt;22/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#191919&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#191919&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/4 V4&lt;/name&gt;_x000D_
+		&lt;source&gt;22/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/5 V5&lt;/name&gt;_x000D_
+		&lt;source&gt;22/5@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#4C4C99&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#4C4C99&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I9&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;23/1 MOpen&lt;/name&gt;_x000D_
+		&lt;source&gt;23/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#4C994C&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#4C994C&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;29/1 NOTileM1&lt;/name&gt;_x000D_
+		&lt;source&gt;29/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#339933&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#339933&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;29/2 NOTileM2&lt;/name&gt;_x000D_
+		&lt;source&gt;29/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#0000FF&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#0000FF&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;31/0 Ge&lt;/name&gt;_x000D_
+		&lt;source&gt;31/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/3 PolyTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;32/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I12&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/4 PolyInv&lt;/name&gt;_x000D_
+		&lt;source&gt;32/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I15&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/0 PolyFull&lt;/name&gt;_x000D_
+		&lt;source&gt;32/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I4&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/0 PolyMidCore&lt;/name&gt;_x000D_
+		&lt;source&gt;33/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/1 PolyMidClad&lt;/name&gt;_x000D_
+		&lt;source&gt;33/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/2 PolyMidHole&lt;/name&gt;_x000D_
+		&lt;source&gt;33/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/3 PolyMidTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;33/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I19&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;91/0 FP&lt;/name&gt;_x000D_
+		&lt;source&gt;91/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;92/0 TXT&lt;/name&gt;_x000D_
+		&lt;source&gt;92/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I25&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;93/0 DRCexcl&lt;/name&gt;_x000D_
+		&lt;source&gt;93/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I28&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;94/0 SEM&lt;/name&gt;_x000D_
+		&lt;source&gt;94/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I31&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;101/0 CMCdicing&lt;/name&gt;_x000D_
+		&lt;source&gt;101/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I34&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;103/0 FullCore6nmSPF&lt;/name&gt;_x000D_
+		&lt;source&gt;103/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+</v>
       </c>
     </row>
     <row r="56" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="e">
-        <f>'Layer Map'!#REF!</f>
-        <v>#REF!</v>
+      <c r="B56" s="15" t="str">
+        <f>'Layer Map'!C57</f>
+        <v>FullCore4nm</v>
       </c>
       <c r="C56" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D56" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#CCF2FF</v>
+        <v>#7FFF00</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#CCF2FF</v>
+        <v>#7FFF00</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -25699,7 +27164,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>79</v>
@@ -25717,22 +27182,22 @@
       <c r="O56" s="1">
         <v>0</v>
       </c>
-      <c r="P56" s="4" t="e">
-        <f>TEXT('Layer Map'!#REF!, 0) &amp; "/" &amp; TEXT('Layer Map'!#REF!, 0) &amp; " " &amp; Tableau3[[#This Row],[id]]</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q56" s="1" t="e">
-        <f>TEXT('Layer Map'!#REF!, 0) &amp; "/" &amp; TEXT('Layer Map'!#REF!, 0) &amp; "@1"</f>
-        <v>#REF!</v>
+      <c r="P56" s="4" t="str">
+        <f>TEXT('Layer Map'!D57, 0) &amp; "/" &amp; TEXT('Layer Map'!E57, 0) &amp; " " &amp; Tableau3[[#This Row],[id]]</f>
+        <v>103/1 FullCore4nm</v>
+      </c>
+      <c r="Q56" s="1" t="str">
+        <f>TEXT('Layer Map'!D57, 0) &amp; "/" &amp; TEXT('Layer Map'!E57, 0) &amp; "@1"</f>
+        <v>103/1@1</v>
       </c>
       <c r="V56" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">		&lt;frame-color&gt;#CCF2FF&lt;/frame-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
 </v>
       </c>
       <c r="W56" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">		&lt;fill-color&gt;#CCF2FF&lt;/fill-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
 </v>
       </c>
       <c r="X56" t="str">
@@ -25747,7 +27212,7 @@
       </c>
       <c r="Z56" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">		&lt;dither-pattern&gt;I15&lt;/dither-pattern&gt;_x000D_
+        <v xml:space="preserve">		&lt;dither-pattern&gt;I37&lt;/dither-pattern&gt;_x000D_
 </v>
       </c>
       <c r="AA56" t="str">
@@ -25775,40 +27240,756 @@
         <v xml:space="preserve">		&lt;animation&gt;0&lt;/animation&gt;_x000D_
 </v>
       </c>
-      <c r="AF56" t="e">
+      <c r="AF56" t="str">
         <f t="shared" si="46"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG56" t="e">
+        <v xml:space="preserve">		&lt;name&gt;103/1 FullCore4nm&lt;/name&gt;_x000D_
+</v>
+      </c>
+      <c r="AG56" t="str">
         <f t="shared" si="47"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH56" s="6" t="e">
+        <v xml:space="preserve">		&lt;source&gt;103/1@1&lt;/source&gt;_x000D_
+</v>
+      </c>
+      <c r="AH56" s="6" t="str">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/0 FullCore&lt;/name&gt;_x000D_
+		&lt;source&gt;1/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999999&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999999&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/1 FullClad&lt;/name&gt;_x000D_
+		&lt;source&gt;1/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/2 FullHole&lt;/name&gt;_x000D_
+		&lt;source&gt;1/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/3 FullTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;1/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/0 MidCore&lt;/name&gt;_x000D_
+		&lt;source&gt;2/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999999&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999999&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/1 MidClad&lt;/name&gt;_x000D_
+		&lt;source&gt;2/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FF9900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FF9900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/2 MidHole&lt;/name&gt;_x000D_
+		&lt;source&gt;2/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FF9900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FF9900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/3 MidTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;2/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/0 ShallowCore&lt;/name&gt;_x000D_
+		&lt;source&gt;3/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/1 ShallowClad&lt;/name&gt;_x000D_
+		&lt;source&gt;3/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/2 ShallowHole&lt;/name&gt;_x000D_
+		&lt;source&gt;3/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/3 ShallowTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;3/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#9999CC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#9999CC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I9&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;7/0 OxEtch&lt;/name&gt;_x000D_
+		&lt;source&gt;7/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;8/0 DeepEtch&lt;/name&gt;_x000D_
+		&lt;source&gt;8/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CCB27F&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CCB27F&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;9/0 NOTileSi&lt;/name&gt;_x000D_
+		&lt;source&gt;9/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/1 N&lt;/name&gt;_x000D_
+		&lt;source&gt;11/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/2 Np&lt;/name&gt;_x000D_
+		&lt;source&gt;11/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/3 Npp&lt;/name&gt;_x000D_
+		&lt;source&gt;11/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/1 P&lt;/name&gt;_x000D_
+		&lt;source&gt;12/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/2 Pp&lt;/name&gt;_x000D_
+		&lt;source&gt;12/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/3 Ppp&lt;/name&gt;_x000D_
+		&lt;source&gt;12/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00CCCC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00CCCC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;13/1 GeN&lt;/name&gt;_x000D_
+		&lt;source&gt;13/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC00CC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC00CC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I21&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;14/1 GeP&lt;/name&gt;_x000D_
+		&lt;source&gt;14/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/1 M1&lt;/name&gt;_x000D_
+		&lt;source&gt;21/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FFB200&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FFB200&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/2 M2&lt;/name&gt;_x000D_
+		&lt;source&gt;21/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/3 M3&lt;/name&gt;_x000D_
+		&lt;source&gt;21/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#191919&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#191919&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/4 M4&lt;/name&gt;_x000D_
+		&lt;source&gt;21/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/5 M5&lt;/name&gt;_x000D_
+		&lt;source&gt;21/5@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/1 V1&lt;/name&gt;_x000D_
+		&lt;source&gt;22/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FFB200&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FFB200&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/2 V2&lt;/name&gt;_x000D_
+		&lt;source&gt;22/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/3 V3&lt;/name&gt;_x000D_
+		&lt;source&gt;22/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#191919&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#191919&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/4 V4&lt;/name&gt;_x000D_
+		&lt;source&gt;22/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/5 V5&lt;/name&gt;_x000D_
+		&lt;source&gt;22/5@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#4C4C99&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#4C4C99&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I9&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;23/1 MOpen&lt;/name&gt;_x000D_
+		&lt;source&gt;23/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#4C994C&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#4C994C&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;29/1 NOTileM1&lt;/name&gt;_x000D_
+		&lt;source&gt;29/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#339933&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#339933&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;29/2 NOTileM2&lt;/name&gt;_x000D_
+		&lt;source&gt;29/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#0000FF&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#0000FF&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;31/0 Ge&lt;/name&gt;_x000D_
+		&lt;source&gt;31/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/3 PolyTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;32/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I12&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/4 PolyInv&lt;/name&gt;_x000D_
+		&lt;source&gt;32/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I15&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/0 PolyFull&lt;/name&gt;_x000D_
+		&lt;source&gt;32/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I4&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/0 PolyMidCore&lt;/name&gt;_x000D_
+		&lt;source&gt;33/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/1 PolyMidClad&lt;/name&gt;_x000D_
+		&lt;source&gt;33/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/2 PolyMidHole&lt;/name&gt;_x000D_
+		&lt;source&gt;33/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/3 PolyMidTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;33/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I19&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;91/0 FP&lt;/name&gt;_x000D_
+		&lt;source&gt;91/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;92/0 TXT&lt;/name&gt;_x000D_
+		&lt;source&gt;92/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I25&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;93/0 DRCexcl&lt;/name&gt;_x000D_
+		&lt;source&gt;93/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I28&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;94/0 SEM&lt;/name&gt;_x000D_
+		&lt;source&gt;94/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I31&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;101/0 CMCdicing&lt;/name&gt;_x000D_
+		&lt;source&gt;101/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I34&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;103/0 FullCore6nmSPF&lt;/name&gt;_x000D_
+		&lt;source&gt;103/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I37&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;103/1 FullCore4nm&lt;/name&gt;_x000D_
+		&lt;source&gt;103/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+</v>
       </c>
     </row>
     <row r="57" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B57" s="15" t="str">
-        <f>'Layer Map'!C56</f>
-        <v>FullCore6nmSPF</v>
+        <f>'Layer Map'!C58</f>
+        <v>FullCore2nm</v>
       </c>
       <c r="C57" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
       </c>
       <c r="F57" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#CC0000</v>
+        <v>#7FFF00</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#CC0000</v>
+        <v>#7FFF00</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -25817,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>79</v>
@@ -25836,21 +28017,21 @@
         <v>0</v>
       </c>
       <c r="P57" s="4" t="str">
-        <f>TEXT('Layer Map'!D56, 0) &amp; "/" &amp; TEXT('Layer Map'!E56, 0) &amp; " " &amp; Tableau3[[#This Row],[id]]</f>
-        <v>103/0 FullCore6nmSPF</v>
+        <f>TEXT('Layer Map'!D58, 0) &amp; "/" &amp; TEXT('Layer Map'!E58, 0) &amp; " " &amp; Tableau3[[#This Row],[id]]</f>
+        <v>103/2 FullCore2nm</v>
       </c>
       <c r="Q57" s="1" t="str">
-        <f>TEXT('Layer Map'!D56, 0) &amp; "/" &amp; TEXT('Layer Map'!E56, 0) &amp; "@1"</f>
-        <v>103/0@1</v>
+        <f>TEXT('Layer Map'!D58, 0) &amp; "/" &amp; TEXT('Layer Map'!E58, 0) &amp; "@1"</f>
+        <v>103/2@1</v>
       </c>
       <c r="V57" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
 </v>
       </c>
       <c r="W57" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
 </v>
       </c>
       <c r="X57" t="str">
@@ -25865,7 +28046,7 @@
       </c>
       <c r="Z57" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+        <v xml:space="preserve">		&lt;dither-pattern&gt;I40&lt;/dither-pattern&gt;_x000D_
 </v>
       </c>
       <c r="AA57" t="str">
@@ -25895,40 +28076,768 @@
       </c>
       <c r="AF57" t="str">
         <f t="shared" si="46"/>
-        <v xml:space="preserve">		&lt;name&gt;103/0 FullCore6nmSPF&lt;/name&gt;_x000D_
+        <v xml:space="preserve">		&lt;name&gt;103/2 FullCore2nm&lt;/name&gt;_x000D_
 </v>
       </c>
       <c r="AG57" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">		&lt;source&gt;103/0@1&lt;/source&gt;_x000D_
-</v>
-      </c>
-      <c r="AH57" s="6" t="e">
+        <v xml:space="preserve">		&lt;source&gt;103/2@1&lt;/source&gt;_x000D_
+</v>
+      </c>
+      <c r="AH57" s="6" t="str">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/0 FullCore&lt;/name&gt;_x000D_
+		&lt;source&gt;1/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999999&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999999&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/1 FullClad&lt;/name&gt;_x000D_
+		&lt;source&gt;1/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/2 FullHole&lt;/name&gt;_x000D_
+		&lt;source&gt;1/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/3 FullTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;1/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/0 MidCore&lt;/name&gt;_x000D_
+		&lt;source&gt;2/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999999&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999999&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/1 MidClad&lt;/name&gt;_x000D_
+		&lt;source&gt;2/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FF9900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FF9900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/2 MidHole&lt;/name&gt;_x000D_
+		&lt;source&gt;2/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FF9900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FF9900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/3 MidTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;2/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/0 ShallowCore&lt;/name&gt;_x000D_
+		&lt;source&gt;3/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/1 ShallowClad&lt;/name&gt;_x000D_
+		&lt;source&gt;3/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/2 ShallowHole&lt;/name&gt;_x000D_
+		&lt;source&gt;3/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/3 ShallowTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;3/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#9999CC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#9999CC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I9&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;7/0 OxEtch&lt;/name&gt;_x000D_
+		&lt;source&gt;7/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;8/0 DeepEtch&lt;/name&gt;_x000D_
+		&lt;source&gt;8/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CCB27F&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CCB27F&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;9/0 NOTileSi&lt;/name&gt;_x000D_
+		&lt;source&gt;9/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/1 N&lt;/name&gt;_x000D_
+		&lt;source&gt;11/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/2 Np&lt;/name&gt;_x000D_
+		&lt;source&gt;11/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/3 Npp&lt;/name&gt;_x000D_
+		&lt;source&gt;11/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/1 P&lt;/name&gt;_x000D_
+		&lt;source&gt;12/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/2 Pp&lt;/name&gt;_x000D_
+		&lt;source&gt;12/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/3 Ppp&lt;/name&gt;_x000D_
+		&lt;source&gt;12/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00CCCC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00CCCC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;13/1 GeN&lt;/name&gt;_x000D_
+		&lt;source&gt;13/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC00CC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC00CC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I21&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;14/1 GeP&lt;/name&gt;_x000D_
+		&lt;source&gt;14/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/1 M1&lt;/name&gt;_x000D_
+		&lt;source&gt;21/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FFB200&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FFB200&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/2 M2&lt;/name&gt;_x000D_
+		&lt;source&gt;21/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/3 M3&lt;/name&gt;_x000D_
+		&lt;source&gt;21/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#191919&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#191919&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/4 M4&lt;/name&gt;_x000D_
+		&lt;source&gt;21/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/5 M5&lt;/name&gt;_x000D_
+		&lt;source&gt;21/5@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/1 V1&lt;/name&gt;_x000D_
+		&lt;source&gt;22/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FFB200&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FFB200&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/2 V2&lt;/name&gt;_x000D_
+		&lt;source&gt;22/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/3 V3&lt;/name&gt;_x000D_
+		&lt;source&gt;22/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#191919&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#191919&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/4 V4&lt;/name&gt;_x000D_
+		&lt;source&gt;22/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/5 V5&lt;/name&gt;_x000D_
+		&lt;source&gt;22/5@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#4C4C99&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#4C4C99&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I9&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;23/1 MOpen&lt;/name&gt;_x000D_
+		&lt;source&gt;23/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#4C994C&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#4C994C&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;29/1 NOTileM1&lt;/name&gt;_x000D_
+		&lt;source&gt;29/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#339933&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#339933&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;29/2 NOTileM2&lt;/name&gt;_x000D_
+		&lt;source&gt;29/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#0000FF&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#0000FF&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;31/0 Ge&lt;/name&gt;_x000D_
+		&lt;source&gt;31/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/3 PolyTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;32/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I12&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/4 PolyInv&lt;/name&gt;_x000D_
+		&lt;source&gt;32/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I15&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/0 PolyFull&lt;/name&gt;_x000D_
+		&lt;source&gt;32/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I4&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/0 PolyMidCore&lt;/name&gt;_x000D_
+		&lt;source&gt;33/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/1 PolyMidClad&lt;/name&gt;_x000D_
+		&lt;source&gt;33/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/2 PolyMidHole&lt;/name&gt;_x000D_
+		&lt;source&gt;33/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/3 PolyMidTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;33/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I19&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;91/0 FP&lt;/name&gt;_x000D_
+		&lt;source&gt;91/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;92/0 TXT&lt;/name&gt;_x000D_
+		&lt;source&gt;92/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I25&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;93/0 DRCexcl&lt;/name&gt;_x000D_
+		&lt;source&gt;93/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I28&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;94/0 SEM&lt;/name&gt;_x000D_
+		&lt;source&gt;94/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I31&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;101/0 CMCdicing&lt;/name&gt;_x000D_
+		&lt;source&gt;101/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I34&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;103/0 FullCore6nmSPF&lt;/name&gt;_x000D_
+		&lt;source&gt;103/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I37&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;103/1 FullCore4nm&lt;/name&gt;_x000D_
+		&lt;source&gt;103/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I40&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;103/2 FullCore2nm&lt;/name&gt;_x000D_
+		&lt;source&gt;103/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+</v>
       </c>
     </row>
     <row r="58" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B58" s="15" t="str">
-        <f>'Layer Map'!C57</f>
-        <v>FullCore4nm</v>
+        <f>'Layer Map'!C59</f>
+        <v>FullTrench2nm</v>
       </c>
       <c r="C58" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
       </c>
       <c r="F58" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#CC0000</v>
+        <v>#7FFF00</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="35"/>
-        <v>#CC0000</v>
+        <v>#7FFF00</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -25937,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>79</v>
@@ -25955,22 +28864,22 @@
       <c r="O58" s="1">
         <v>0</v>
       </c>
-      <c r="P58" s="18" t="str">
-        <f>TEXT('Layer Map'!D57, 0) &amp; "/" &amp; TEXT('Layer Map'!E57, 0) &amp; " " &amp; Tableau3[[#This Row],[id]]</f>
-        <v>103/1 FullCore4nm</v>
-      </c>
-      <c r="Q58" s="14" t="str">
-        <f>TEXT('Layer Map'!D57, 0) &amp; "/" &amp; TEXT('Layer Map'!E57, 0) &amp; "@1"</f>
-        <v>103/1@1</v>
+      <c r="P58" s="4" t="str">
+        <f>TEXT('Layer Map'!D59, 0) &amp; "/" &amp; TEXT('Layer Map'!E59, 0) &amp; " " &amp; Tableau3[[#This Row],[id]]</f>
+        <v>103/3 FullTrench2nm</v>
+      </c>
+      <c r="Q58" s="1" t="str">
+        <f>TEXT('Layer Map'!D59, 0) &amp; "/" &amp; TEXT('Layer Map'!E59, 0) &amp; "@1"</f>
+        <v>103/3@1</v>
       </c>
       <c r="V58" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
 </v>
       </c>
       <c r="W58" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
+        <v xml:space="preserve">		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
 </v>
       </c>
       <c r="X58" t="str">
@@ -25985,7 +28894,7 @@
       </c>
       <c r="Z58" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+        <v xml:space="preserve">		&lt;dither-pattern&gt;I43&lt;/dither-pattern&gt;_x000D_
 </v>
       </c>
       <c r="AA58" t="str">
@@ -26015,259 +28924,798 @@
       </c>
       <c r="AF58" t="str">
         <f t="shared" si="46"/>
-        <v xml:space="preserve">		&lt;name&gt;103/1 FullCore4nm&lt;/name&gt;_x000D_
+        <v xml:space="preserve">		&lt;name&gt;103/3 FullTrench2nm&lt;/name&gt;_x000D_
 </v>
       </c>
       <c r="AG58" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">		&lt;source&gt;103/1@1&lt;/source&gt;_x000D_
-</v>
-      </c>
-      <c r="AH58" s="6" t="e">
+        <v xml:space="preserve">		&lt;source&gt;103/3@1&lt;/source&gt;_x000D_
+</v>
+      </c>
+      <c r="AH58" s="6" t="str">
         <f t="shared" si="48"/>
-        <v>#REF!</v>
+        <v xml:space="preserve">	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/0 FullCore&lt;/name&gt;_x000D_
+		&lt;source&gt;1/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999999&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999999&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/1 FullClad&lt;/name&gt;_x000D_
+		&lt;source&gt;1/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/2 FullHole&lt;/name&gt;_x000D_
+		&lt;source&gt;1/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;1/3 FullTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;1/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/0 MidCore&lt;/name&gt;_x000D_
+		&lt;source&gt;2/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999999&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999999&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/1 MidClad&lt;/name&gt;_x000D_
+		&lt;source&gt;2/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FF9900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FF9900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/2 MidHole&lt;/name&gt;_x000D_
+		&lt;source&gt;2/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FF9900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FF9900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;2/3 MidTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;2/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/0 ShallowCore&lt;/name&gt;_x000D_
+		&lt;source&gt;3/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/1 ShallowClad&lt;/name&gt;_x000D_
+		&lt;source&gt;3/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/2 ShallowHole&lt;/name&gt;_x000D_
+		&lt;source&gt;3/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#999900&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#999900&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;true&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;3/3 ShallowTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;3/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#9999CC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#9999CC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I9&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;7/0 OxEtch&lt;/name&gt;_x000D_
+		&lt;source&gt;7/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;8/0 DeepEtch&lt;/name&gt;_x000D_
+		&lt;source&gt;8/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CCB27F&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CCB27F&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;9/0 NOTileSi&lt;/name&gt;_x000D_
+		&lt;source&gt;9/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/1 N&lt;/name&gt;_x000D_
+		&lt;source&gt;11/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/2 Np&lt;/name&gt;_x000D_
+		&lt;source&gt;11/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#004CA5&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#004CA5&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;11/3 Npp&lt;/name&gt;_x000D_
+		&lt;source&gt;11/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/1 P&lt;/name&gt;_x000D_
+		&lt;source&gt;12/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I5&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/2 Pp&lt;/name&gt;_x000D_
+		&lt;source&gt;12/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00B233&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00B233&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I6&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;12/3 Ppp&lt;/name&gt;_x000D_
+		&lt;source&gt;12/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#00CCCC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#00CCCC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;13/1 GeN&lt;/name&gt;_x000D_
+		&lt;source&gt;13/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC00CC&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC00CC&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I21&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;14/1 GeP&lt;/name&gt;_x000D_
+		&lt;source&gt;14/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/1 M1&lt;/name&gt;_x000D_
+		&lt;source&gt;21/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FFB200&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FFB200&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/2 M2&lt;/name&gt;_x000D_
+		&lt;source&gt;21/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/3 M3&lt;/name&gt;_x000D_
+		&lt;source&gt;21/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#191919&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#191919&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/4 M4&lt;/name&gt;_x000D_
+		&lt;source&gt;21/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;21/5 M5&lt;/name&gt;_x000D_
+		&lt;source&gt;21/5@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/1 V1&lt;/name&gt;_x000D_
+		&lt;source&gt;22/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#FFB200&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#FFB200&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/2 V2&lt;/name&gt;_x000D_
+		&lt;source&gt;22/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#CC4C00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#CC4C00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/3 V3&lt;/name&gt;_x000D_
+		&lt;source&gt;22/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#191919&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#191919&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/4 V4&lt;/name&gt;_x000D_
+		&lt;source&gt;22/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#000000&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#000000&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I11&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;22/5 V5&lt;/name&gt;_x000D_
+		&lt;source&gt;22/5@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#4C4C99&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#4C4C99&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I9&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;23/1 MOpen&lt;/name&gt;_x000D_
+		&lt;source&gt;23/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#4C994C&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#4C994C&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;29/1 NOTileM1&lt;/name&gt;_x000D_
+		&lt;source&gt;29/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#339933&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#339933&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I1&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;2&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;29/2 NOTileM2&lt;/name&gt;_x000D_
+		&lt;source&gt;29/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#0000FF&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#0000FF&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;31/0 Ge&lt;/name&gt;_x000D_
+		&lt;source&gt;31/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/3 PolyTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;32/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I12&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/4 PolyInv&lt;/name&gt;_x000D_
+		&lt;source&gt;32/4@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#197F00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#197F00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I15&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;32/0 PolyFull&lt;/name&gt;_x000D_
+		&lt;source&gt;32/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I4&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/0 PolyMidCore&lt;/name&gt;_x000D_
+		&lt;source&gt;33/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I3&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/1 PolyMidClad&lt;/name&gt;_x000D_
+		&lt;source&gt;33/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/2 PolyMidHole&lt;/name&gt;_x000D_
+		&lt;source&gt;33/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I16&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;33/3 PolyMidTrench&lt;/name&gt;_x000D_
+		&lt;source&gt;33/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I19&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;91/0 FP&lt;/name&gt;_x000D_
+		&lt;source&gt;91/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I22&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;92/0 TXT&lt;/name&gt;_x000D_
+		&lt;source&gt;92/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I25&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;93/0 DRCexcl&lt;/name&gt;_x000D_
+		&lt;source&gt;93/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I28&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;94/0 SEM&lt;/name&gt;_x000D_
+		&lt;source&gt;94/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I31&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;101/0 CMCdicing&lt;/name&gt;_x000D_
+		&lt;source&gt;101/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I34&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;103/0 FullCore6nmSPF&lt;/name&gt;_x000D_
+		&lt;source&gt;103/0@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I37&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;103/1 FullCore4nm&lt;/name&gt;_x000D_
+		&lt;source&gt;103/1@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I40&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;103/2 FullCore2nm&lt;/name&gt;_x000D_
+		&lt;source&gt;103/2@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+	&lt;properties&gt;_x000D_
+		&lt;frame-color&gt;#7FFF00&lt;/frame-color&gt;_x000D_
+		&lt;fill-color&gt;#7FFF00&lt;/fill-color&gt;_x000D_
+		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
+		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
+		&lt;dither-pattern&gt;I43&lt;/dither-pattern&gt;_x000D_
+		&lt;visible&gt;true&lt;/visible&gt;_x000D_
+		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
+		&lt;width&gt;1&lt;/width&gt;_x000D_
+		&lt;marked&gt;false&lt;/marked&gt;_x000D_
+		&lt;animation&gt;0&lt;/animation&gt;_x000D_
+		&lt;name&gt;103/3 FullTrench2nm&lt;/name&gt;_x000D_
+		&lt;source&gt;103/3@1&lt;/source&gt;_x000D_
+	&lt;/properties&gt;_x000D_
+</v>
       </c>
     </row>
     <row r="59" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="str">
-        <f>'Layer Map'!C58</f>
-        <v>FullCore2nm</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>#CC0000</v>
-      </c>
-      <c r="G59" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>#CC0000</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L59" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>false</v>
-      </c>
-      <c r="M59" s="1">
-        <v>1</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O59" s="1">
-        <v>0</v>
-      </c>
-      <c r="P59" s="18" t="str">
-        <f>TEXT('Layer Map'!D58, 0) &amp; "/" &amp; TEXT('Layer Map'!E58, 0) &amp; " " &amp; Tableau3[[#This Row],[id]]</f>
-        <v>103/2 FullCore2nm</v>
-      </c>
-      <c r="Q59" s="14" t="str">
-        <f>TEXT('Layer Map'!D58, 0) &amp; "/" &amp; TEXT('Layer Map'!E58, 0) &amp; "@1"</f>
-        <v>103/2@1</v>
-      </c>
-      <c r="V59" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
-</v>
-      </c>
-      <c r="W59" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
-</v>
-      </c>
-      <c r="X59" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-</v>
-      </c>
-      <c r="Y59" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-</v>
-      </c>
-      <c r="Z59" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">		&lt;dither-pattern&gt;I13&lt;/dither-pattern&gt;_x000D_
-</v>
-      </c>
-      <c r="AA59" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">		&lt;visible&gt;true&lt;/visible&gt;_x000D_
-</v>
-      </c>
-      <c r="AB59" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve">		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
-</v>
-      </c>
-      <c r="AC59" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve">		&lt;width&gt;1&lt;/width&gt;_x000D_
-</v>
-      </c>
-      <c r="AD59" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">		&lt;marked&gt;false&lt;/marked&gt;_x000D_
-</v>
-      </c>
-      <c r="AE59" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">		&lt;animation&gt;0&lt;/animation&gt;_x000D_
-</v>
-      </c>
-      <c r="AF59" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">		&lt;name&gt;103/2 FullCore2nm&lt;/name&gt;_x000D_
-</v>
-      </c>
-      <c r="AG59" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">		&lt;source&gt;103/2@1&lt;/source&gt;_x000D_
-</v>
-      </c>
-      <c r="AH59" s="6" t="e">
-        <f t="shared" si="48"/>
-        <v>#REF!</v>
-      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="1"/>
+      <c r="AH59" s="6"/>
     </row>
     <row r="60" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B60" s="15" t="str">
-        <f>'Layer Map'!C59</f>
-        <v>FullTrench2nm</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>#CC0000</v>
-      </c>
-      <c r="G60" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>#CC0000</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1" t="str">
-        <f>J52</f>
-        <v>I2</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L60" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>false</v>
-      </c>
-      <c r="M60" s="1">
-        <v>2</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O60" s="1">
-        <v>0</v>
-      </c>
-      <c r="P60" s="18" t="str">
-        <f>TEXT('Layer Map'!D59, 0) &amp; "/" &amp; TEXT('Layer Map'!E59, 0) &amp; " " &amp; Tableau3[[#This Row],[id]]</f>
-        <v>103/3 FullTrench2nm</v>
-      </c>
-      <c r="Q60" s="14" t="str">
-        <f>TEXT('Layer Map'!D59, 0) &amp; "/" &amp; TEXT('Layer Map'!E59, 0) &amp; "@1"</f>
-        <v>103/3@1</v>
-      </c>
-      <c r="V60" t="str">
-        <f t="shared" ref="V60" si="49">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; F$5 &amp; "&gt;" &amp; F60 &amp; "&lt;/" &amp; F$5 &amp; "&gt;" &amp; $T$16</f>
-        <v xml:space="preserve">		&lt;frame-color&gt;#CC0000&lt;/frame-color&gt;_x000D_
-</v>
-      </c>
-      <c r="W60" t="str">
-        <f t="shared" ref="W60" si="50">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; G$5 &amp; "&gt;" &amp; G60 &amp; "&lt;/" &amp; G$5 &amp; "&gt;" &amp; $T$16</f>
-        <v xml:space="preserve">		&lt;fill-color&gt;#CC0000&lt;/fill-color&gt;_x000D_
-</v>
-      </c>
-      <c r="X60" t="str">
-        <f t="shared" ref="X60" si="51">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; H$5 &amp; "&gt;" &amp; H60 &amp; "&lt;/" &amp; H$5 &amp; "&gt;" &amp; $T$16</f>
-        <v xml:space="preserve">		&lt;frame-brightness&gt;0&lt;/frame-brightness&gt;_x000D_
-</v>
-      </c>
-      <c r="Y60" t="str">
-        <f t="shared" ref="Y60" si="52">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; I$5 &amp; "&gt;" &amp; I60 &amp; "&lt;/" &amp; I$5 &amp; "&gt;" &amp; $T$16</f>
-        <v xml:space="preserve">		&lt;fill-brightness&gt;0&lt;/fill-brightness&gt;_x000D_
-</v>
-      </c>
-      <c r="Z60" t="str">
-        <f t="shared" ref="Z60" si="53">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; J$5 &amp; "&gt;" &amp; J60 &amp; "&lt;/" &amp; J$5 &amp; "&gt;" &amp; $T$16</f>
-        <v xml:space="preserve">		&lt;dither-pattern&gt;I2&lt;/dither-pattern&gt;_x000D_
-</v>
-      </c>
-      <c r="AA60" t="str">
-        <f t="shared" ref="AA60" si="54">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; K$5 &amp; "&gt;" &amp; K60 &amp; "&lt;/" &amp; K$5 &amp; "&gt;" &amp; $T$16</f>
-        <v xml:space="preserve">		&lt;visible&gt;true&lt;/visible&gt;_x000D_
-</v>
-      </c>
-      <c r="AB60" t="str">
-        <f t="shared" ref="AB60" si="55">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; L$5 &amp; "&gt;" &amp; L60 &amp; "&lt;/" &amp; L$5 &amp; "&gt;" &amp; $T$16</f>
-        <v xml:space="preserve">		&lt;transparent&gt;false&lt;/transparent&gt;_x000D_
-</v>
-      </c>
-      <c r="AC60" t="str">
-        <f t="shared" ref="AC60" si="56">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; M$5 &amp; "&gt;" &amp; M60 &amp; "&lt;/" &amp; M$5 &amp; "&gt;" &amp; $T$16</f>
-        <v xml:space="preserve">		&lt;width&gt;2&lt;/width&gt;_x000D_
-</v>
-      </c>
-      <c r="AD60" t="str">
-        <f t="shared" ref="AD60" si="57">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; N$5 &amp; "&gt;" &amp; N60 &amp; "&lt;/" &amp; N$5 &amp; "&gt;" &amp; $T$16</f>
-        <v xml:space="preserve">		&lt;marked&gt;false&lt;/marked&gt;_x000D_
-</v>
-      </c>
-      <c r="AE60" t="str">
-        <f t="shared" ref="AE60" si="58">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; O$5 &amp; "&gt;" &amp; O60 &amp; "&lt;/" &amp; O$5 &amp; "&gt;" &amp; $T$16</f>
-        <v xml:space="preserve">		&lt;animation&gt;0&lt;/animation&gt;_x000D_
-</v>
-      </c>
-      <c r="AF60" t="str">
-        <f t="shared" ref="AF60" si="59">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; P$5 &amp; "&gt;" &amp; P60 &amp; "&lt;/" &amp; P$5 &amp; "&gt;" &amp; $T$16</f>
-        <v xml:space="preserve">		&lt;name&gt;103/3 FullTrench2nm&lt;/name&gt;_x000D_
-</v>
-      </c>
-      <c r="AG60" t="str">
-        <f t="shared" ref="AG60" si="60">CHAR(9) &amp; CHAR(9) &amp; "&lt;" &amp; Q$5 &amp; "&gt;" &amp; Q60 &amp; "&lt;/" &amp; Q$5 &amp; "&gt;" &amp; $T$16</f>
-        <v xml:space="preserve">		&lt;source&gt;103/3@1&lt;/source&gt;_x000D_
-</v>
-      </c>
-      <c r="AH60" s="6" t="e">
-        <f t="shared" ref="AH60" si="61">AH59&amp;CHAR(9)&amp;"&lt;properties&gt;"&amp;$T$16&amp;V60&amp;W60&amp;X60&amp;Y60&amp;Z60&amp;AA60&amp;AB60&amp;AC60&amp;AD60&amp;AE60&amp;AF60&amp;AG60&amp;CHAR(9)&amp;"&lt;/properties&gt;"&amp;$T$16</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="1"/>
+      <c r="AH60" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -26285,8 +29733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:Y256"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26302,29 +29750,29 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="I4" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
-      <c r="C5" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" s="28"/>
+      <c r="C5" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="27"/>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
@@ -26338,26 +29786,26 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
         <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>100</v>
       </c>
       <c r="I6" t="str">
         <f>"layerGeneral = [" &amp; V256 &amp; "];"</f>
         <v>layerGeneral = [1, 91, 92, 94, 103, 103, 103];</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>77</v>
       </c>
       <c r="X6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y6" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
